--- a/output_for_stat_clean.xlsx
+++ b/output_for_stat_clean.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\пользователь\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AC04DA-FA6B-4C77-8A32-EB7A8E13AB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28921751-D712-457C-AC33-26E1C2218BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="233">
   <si>
     <t>Gender</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>{4.0: ['a2', 'a2', 38485.0], 6.0: ['a2', 'a2', 10449.0], 3.0: ['a1', 'a3', 9997.0], 5.0: ['a1', 'a1', 9505.0], 1.0: ['a2', 'a3', 10536.0], 2.0: ['a1', 'a1', 11572.0]}</t>
+  </si>
+  <si>
+    <t>{4.0: ['a1', 'a1', 17044.0], 1.0: ['a2', 'a3', 12324.0], 5.0: ['a2', 'a2', 13331.0], 6.0: ['a2', 'a2', 9038.0], 2.0: ['a1', 'a3', 13251.0], 3.0: ['a2', 'a1', 41184.0]}</t>
+  </si>
+  <si>
+    <t>{4.0: ['a2', 'a1', 43169.0], 6.0: ['a2', 'a2', 33260.0], 1.0: ['a2', 'a3', 15893.0], 2.0: ['a1', 'a3', 12169.0], 5.0: ['a2', 'a2', 15221.0], 3.0: ['a1', 'a1', 12659.0]}</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,6 +3969,46 @@
         <v>228</v>
       </c>
     </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>18</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>44</v>
+      </c>
+      <c r="C146">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
